--- a/output/IUCN_sp_Taxon.xlsx
+++ b/output/IUCN_sp_Taxon.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">taxonid</t>
   </si>
@@ -32,31 +35,49 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caiman crocodilus</t>
   </si>
   <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crocodylus acutus</t>
   </si>
   <si>
     <t xml:space="preserve">VU</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crocodylus intermedius</t>
   </si>
   <si>
     <t xml:space="preserve">CR</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melanosuchus niger</t>
   </si>
   <si>
     <t xml:space="preserve">LR/cd</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paleosuchus palpebrosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">Paleosuchus trigonatus</t>
@@ -410,89 +431,110 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
         <v>46584</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>5659</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
         <v>5661</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
         <v>13053</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
         <v>46587</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" t="s">
-        <v>7</v>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="n">
         <v>46588</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" t="s">
-        <v>7</v>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
